--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -480,11 +480,22 @@
       <c r="A2" s="3" t="n">
         <v>45338</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.8960970464135021</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.4601476825930431</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8436110794483073</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6860909958108291</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -491,11 +491,22 @@
       <c r="A3" s="3" t="n">
         <v>45341</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.8436110794483073</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.6860909958108291</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9218808683241944</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4554543694683333</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -502,11 +502,22 @@
       <c r="A4" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.9218808683241944</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.4554543694683333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.903588143525741</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4770625473393044</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -513,11 +513,22 @@
       <c r="A5" s="3" t="n">
         <v>45343</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.903588143525741</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.4770625473393044</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.78403432161189</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5127644862230502</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -524,11 +524,22 @@
       <c r="A6" s="3" t="n">
         <v>45344</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.78403432161189</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.5127644862230502</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.074497257769653</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8707149383197168</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -535,11 +535,22 @@
       <c r="A7" s="3" t="n">
         <v>45345</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>1.074497257769653</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.8707149383197168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.292336922102597</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5405852726282341</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -546,11 +546,22 @@
       <c r="A8" s="3" t="n">
         <v>45348</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>1.292336922102597</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.5405852726282341</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7712155108128262</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3980071637372422</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -557,11 +557,22 @@
       <c r="A9" s="3" t="n">
         <v>45349</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.7712155108128262</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.3980071637372422</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4899133736798386</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4524037631508112</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -568,11 +568,22 @@
       <c r="A10" s="3" t="n">
         <v>45350</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.4899133736798386</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.4524037631508112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6040042622399192</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4217526529338852</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -579,11 +579,22 @@
       <c r="A11" s="3" t="n">
         <v>45351</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.6040042622399192</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.4217526529338852</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7422271223814774</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5841567465319542</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -590,11 +590,22 @@
       <c r="A12" s="3" t="n">
         <v>45352</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.7422271223814774</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.5841567465319542</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5896011341430706</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4593058318176612</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -601,11 +601,22 @@
       <c r="A13" s="3" t="n">
         <v>45355</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.5896011341430706</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.4593058318176612</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7806488809686042</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6223537793574609</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -612,11 +612,22 @@
       <c r="A14" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.7806488809686042</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.6223537793574609</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9258423586040915</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6891852769967042</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -623,11 +623,22 @@
       <c r="A15" s="3" t="n">
         <v>45357</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.9258423586040915</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.6891852769967042</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5134887974394147</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3930045001528563</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -634,11 +634,22 @@
       <c r="A16" s="3" t="n">
         <v>45358</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>0.5134887974394147</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.3930045001528563</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7943760357823832</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5601614294594114</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -645,11 +645,22 @@
       <c r="A17" s="3" t="n">
         <v>45359</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>0.7943760357823832</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.5601614294594114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.003830343796712</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8433938667940569</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -656,11 +656,22 @@
       <c r="A18" s="3" t="n">
         <v>45362</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>1.003830343796712</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.8433938667940569</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9613237316935027</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7950744165968748</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -667,11 +667,22 @@
       <c r="A19" s="3" t="n">
         <v>45363</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="1" t="n">
         <v>0.9613237316935027</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.7950744165968748</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9600888812921973</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4157018347413318</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -678,11 +678,22 @@
       <c r="A20" s="3" t="n">
         <v>45364</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="1" t="n">
         <v>0.9600888812921973</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="1" t="n">
         <v>0.4157018347413318</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.102017937219731</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4734628552577901</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -689,11 +689,22 @@
       <c r="A21" s="3" t="n">
         <v>45365</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="1" t="n">
         <v>1.102017937219731</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.4734628552577901</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.085281980742778</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.898472298849365</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -700,11 +700,22 @@
       <c r="A22" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="1" t="n">
         <v>1.085281980742778</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.898472298849365</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8958565668696921</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5964817627606653</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -711,11 +711,22 @@
       <c r="A23" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="1" t="n">
         <v>0.8958565668696921</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="1" t="n">
         <v>0.5964817627606653</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9778934003833802</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9027071941711046</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -722,11 +722,22 @@
       <c r="A24" s="3" t="n">
         <v>45369</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="1" t="n">
         <v>0.9778934003833802</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.9027071941711046</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8833392793435605</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8691352799781948</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -733,11 +733,22 @@
       <c r="A25" s="3" t="n">
         <v>45370</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="1" t="n">
         <v>0.8833392793435605</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="1" t="n">
         <v>0.8691352799781948</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9638880216463732</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6025396725589579</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -744,11 +744,22 @@
       <c r="A26" s="3" t="n">
         <v>45371</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="1" t="n">
         <v>0.9638880216463732</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="1" t="n">
         <v>0.6025396725589579</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.043586713929368</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.546581077797026</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -755,11 +755,22 @@
       <c r="A27" s="3" t="n">
         <v>45372</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="1" t="n">
         <v>1.043586713929368</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="1" t="n">
         <v>0.546581077797026</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7169206619137942</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9052184476421844</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -766,11 +766,22 @@
       <c r="A28" s="3" t="n">
         <v>45373</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="1" t="n">
         <v>0.7169206619137942</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="1" t="n">
         <v>0.9052184476421844</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8857965451055663</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8277750172222501</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -777,11 +777,22 @@
       <c r="A29" s="3" t="n">
         <v>45376</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="1" t="n">
         <v>0.8857965451055663</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="1" t="n">
         <v>0.8277750172222501</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.089416058394161</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.063973365010655</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -788,11 +788,22 @@
       <c r="A30" s="3" t="n">
         <v>45377</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="1" t="n">
         <v>1.089416058394161</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="1" t="n">
         <v>1.063973365010655</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.247869109434702</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.217662886180967</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -799,11 +799,22 @@
       <c r="A31" s="3" t="n">
         <v>45378</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="1" t="n">
         <v>2.247869109434702</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="1" t="n">
         <v>1.217662886180967</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8078770413064361</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8143506008273635</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -810,11 +810,22 @@
       <c r="A32" s="3" t="n">
         <v>45379</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="1" t="n">
         <v>0.8078770413064361</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="1" t="n">
         <v>0.8143506008273635</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.02366819445488</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9869036223591278</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -821,11 +821,22 @@
       <c r="A33" s="3" t="n">
         <v>45383</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="1" t="n">
         <v>1.02366819445488</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="1" t="n">
         <v>0.9869036223591278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.049307089777064</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.082510891253076</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -832,11 +832,22 @@
       <c r="A34" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="1" t="n">
         <v>1.049307089777064</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="1" t="n">
         <v>1.082510891253076</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.331529621778422</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.018402315948098</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -843,11 +843,22 @@
       <c r="A35" s="3" t="n">
         <v>45385</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="1" t="n">
         <v>1.331529621778422</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="1" t="n">
         <v>1.018402315948098</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9765913206787846</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5949437577347363</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -854,11 +854,22 @@
       <c r="A36" s="3" t="n">
         <v>45386</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="1" t="n">
         <v>0.9765913206787846</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="1" t="n">
         <v>0.5949437577347363</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.609536561779365</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.455687643527861</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -865,11 +865,22 @@
       <c r="A37" s="3" t="n">
         <v>45387</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="1" t="n">
         <v>1.609536561779365</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="1" t="n">
         <v>0.455687643527861</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.510549538708383</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.531125442859754</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -876,11 +876,22 @@
       <c r="A38" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="1" t="n">
         <v>3.510549538708383</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="1" t="n">
         <v>0.531125442859754</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8374850139869455</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.571299522140474</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -887,11 +887,22 @@
       <c r="A39" s="3" t="n">
         <v>45391</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="1" t="n">
         <v>0.8374850139869455</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="1" t="n">
         <v>0.571299522140474</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8323577033254452</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.654150745299012</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -898,11 +898,22 @@
       <c r="A40" s="3" t="n">
         <v>45392</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="1" t="n">
         <v>0.8323577033254452</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="1" t="n">
         <v>0.654150745299012</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.570161692428236</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8190528722938225</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -909,11 +909,22 @@
       <c r="A41" s="3" t="n">
         <v>45393</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="1" t="n">
         <v>1.570161692428236</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="1" t="n">
         <v>0.8190528722938225</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9170455714432671</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9102716012513347</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -920,11 +920,22 @@
       <c r="A42" s="3" t="n">
         <v>45394</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="1" t="n">
         <v>0.9170455714432671</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="1" t="n">
         <v>0.9102716012513347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.619982108911998</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.027686029806327</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -931,11 +931,22 @@
       <c r="A43" s="3" t="n">
         <v>45397</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="1" t="n">
         <v>2.619982108911998</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="1" t="n">
         <v>1.027686029806327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.618427301716534</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.399630351796496</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -942,11 +942,22 @@
       <c r="A44" s="3" t="n">
         <v>45398</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="1" t="n">
         <v>2.618427301716534</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="1" t="n">
         <v>1.399630351796496</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.588543652306519</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.402399949735614</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -953,11 +953,22 @@
       <c r="A45" s="3" t="n">
         <v>45399</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="1" t="n">
         <v>2.588543652306519</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="1" t="n">
         <v>1.402399949735614</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.622103004291845</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.384411961461445</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -964,11 +964,22 @@
       <c r="A46" s="3" t="n">
         <v>45400</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="1" t="n">
         <v>1.622103004291845</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="1" t="n">
         <v>2.384411961461445</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.570338983050847</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.842853158503605</v>
       </c>
     </row>
     <row r="1048562" ht="12.8" customHeight="1" s="2"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -975,10 +975,21 @@
       <c r="A47" s="3" t="n">
         <v>45401</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="1" t="n">
         <v>1.570338983050847</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="1" t="n">
+        <v>1.842853158503605</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.570338983050847</v>
+      </c>
+      <c r="C48" t="n">
         <v>1.842853158503605</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -1,78 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCRn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCRv</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -80,619 +61,973 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
+    <col width="10.43" customWidth="1" style="4" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>PCRn</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>PCRv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="6" t="n">
         <v>45338</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.896097046413502</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.460147682593043</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="A3" s="6" t="n">
         <v>45341</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.843611079448307</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="4" t="n">
         <v>0.686090995810829</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="n">
         <v>45342</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.921880868324194</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.455454369468333</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="n">
         <v>45343</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.903588143525741</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.477062547339304</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="6" t="n">
         <v>45344</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.78403432161189</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.51276448622305</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="n">
         <v>45345</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="4" t="n">
         <v>1.07449725776965</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="4" t="n">
         <v>0.870714938319717</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="n">
         <v>45348</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="4" t="n">
         <v>1.2923369221026</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="4" t="n">
         <v>0.540585272628234</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" ht="15" customHeight="1" s="5">
+      <c r="A9" s="6" t="n">
         <v>45349</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.771215510812826</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="4" t="n">
         <v>0.398007163737242</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="6" t="n">
         <v>45350</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="4" t="n">
         <v>0.489913373679839</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="4" t="n">
         <v>0.452403763150811</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="A11" s="6" t="n">
         <v>45351</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.604004262239919</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="4" t="n">
         <v>0.421752652933885</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" ht="15" customHeight="1" s="5">
+      <c r="A12" s="6" t="n">
         <v>45352</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="4" t="n">
         <v>0.742227122381477</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="4" t="n">
         <v>0.584156746531954</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" ht="15" customHeight="1" s="5">
+      <c r="A13" s="6" t="n">
         <v>45355</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="4" t="n">
         <v>0.589601134143071</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="4" t="n">
         <v>0.459305831817661</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" ht="15" customHeight="1" s="5">
+      <c r="A14" s="6" t="n">
         <v>45356</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="4" t="n">
         <v>0.780648880968604</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>0.622353779357461</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="C14" s="4" t="n">
+        <v>0.6223537793574609</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="5">
+      <c r="A15" s="6" t="n">
         <v>45357</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.925842358604091</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="4" t="n">
         <v>0.689185276996704</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" ht="15" customHeight="1" s="5">
+      <c r="A16" s="6" t="n">
         <v>45358</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="4" t="n">
         <v>0.513488797439415</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="4" t="n">
         <v>0.393004500152856</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" ht="15" customHeight="1" s="5">
+      <c r="A17" s="6" t="n">
         <v>45359</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="4" t="n">
         <v>0.794376035782383</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>0.560161429459411</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="C17" s="4" t="n">
+        <v>0.5601614294594111</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="5">
+      <c r="A18" s="6" t="n">
         <v>45362</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="4" t="n">
         <v>1.00383034379671</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="4" t="n">
         <v>0.843393866794057</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" ht="15" customHeight="1" s="5">
+      <c r="A19" s="6" t="n">
         <v>45363</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="4" t="n">
         <v>0.961323731693503</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>0.795074416596875</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="C19" s="4" t="n">
+        <v>0.7950744165968751</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="5">
+      <c r="A20" s="6" t="n">
         <v>45364</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="4" t="n">
         <v>0.960088881292197</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="4" t="n">
         <v>0.415701834741332</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" ht="15" customHeight="1" s="5">
+      <c r="A21" s="6" t="n">
         <v>45365</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="4" t="n">
         <v>1.10201793721973</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="4" t="n">
         <v>0.47346285525779</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" ht="15" customHeight="1" s="5">
+      <c r="A22" s="6" t="n">
         <v>45366</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="4" t="n">
         <v>1.08528198074278</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="4" t="n">
         <v>0.898472298849365</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" ht="15" customHeight="1" s="5">
+      <c r="A23" s="6" t="n">
         <v>45366</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="4" t="n">
         <v>0.895856566869692</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="4" t="n">
         <v>0.596481762760665</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" ht="15" customHeight="1" s="5">
+      <c r="A24" s="6" t="n">
         <v>45369</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="4" t="n">
         <v>0.97789340038338</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="4" t="n">
         <v>0.902707194171104</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" ht="15" customHeight="1" s="5">
+      <c r="A25" s="6" t="n">
         <v>45370</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="4" t="n">
         <v>0.883339279343561</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="4" t="n">
         <v>0.869135279978195</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" ht="15" customHeight="1" s="5">
+      <c r="A26" s="6" t="n">
         <v>45371</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="4" t="n">
         <v>0.963888021646373</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="4" t="n">
         <v>0.602539672558958</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" ht="15" customHeight="1" s="5">
+      <c r="A27" s="6" t="n">
         <v>45372</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="4" t="n">
         <v>1.04358671392937</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="4" t="n">
         <v>0.546581077797026</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" ht="15" customHeight="1" s="5">
+      <c r="A28" s="6" t="n">
         <v>45373</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="4" t="n">
         <v>0.716920661913794</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="4" t="n">
         <v>0.905218447642184</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" ht="15" customHeight="1" s="5">
+      <c r="A29" s="6" t="n">
         <v>45376</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="4" t="n">
         <v>0.885796545105566</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="4" t="n">
         <v>0.82777501722225</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" ht="15" customHeight="1" s="5">
+      <c r="A30" s="6" t="n">
         <v>45377</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="4" t="n">
         <v>1.08941605839416</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="4" t="n">
         <v>1.06397336501066</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" ht="15" customHeight="1" s="5">
+      <c r="A31" s="6" t="n">
         <v>45378</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="4" t="n">
         <v>2.2478691094347</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="4" t="n">
         <v>1.21766288618097</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" ht="15" customHeight="1" s="5">
+      <c r="A32" s="6" t="n">
         <v>45379</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="4" t="n">
         <v>0.807877041306436</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="4" t="n">
         <v>0.814350600827363</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" ht="15" customHeight="1" s="5">
+      <c r="A33" s="6" t="n">
         <v>45383</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="4" t="n">
         <v>1.02366819445488</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="4" t="n">
         <v>0.986903622359128</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" ht="15" customHeight="1" s="5">
+      <c r="A34" s="6" t="n">
         <v>45384</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="4" t="n">
         <v>1.04930708977706</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="4" t="n">
         <v>1.08251089125308</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" ht="15" customHeight="1" s="5">
+      <c r="A35" s="6" t="n">
         <v>45385</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="4" t="n">
         <v>1.33152962177842</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="4" t="n">
         <v>1.0184023159481</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" ht="15" customHeight="1" s="5">
+      <c r="A36" s="6" t="n">
         <v>45386</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="4" t="n">
         <v>0.976591320678785</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="4" t="n">
         <v>0.594943757734736</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" ht="15" customHeight="1" s="5">
+      <c r="A37" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="4" t="n">
         <v>1.60953656177937</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="4" t="n">
         <v>0.455687643527861</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" ht="15" customHeight="1" s="5">
+      <c r="A38" s="6" t="n">
         <v>45390</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="4" t="n">
         <v>3.51054953870838</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="4" t="n">
         <v>0.531125442859754</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" ht="15" customHeight="1" s="5">
+      <c r="A39" s="6" t="n">
         <v>45391</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="4" t="n">
         <v>0.837485013986946</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="4" t="n">
         <v>0.571299522140474</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" ht="15" customHeight="1" s="5">
+      <c r="A40" s="6" t="n">
         <v>45392</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="4" t="n">
         <v>0.832357703325445</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="4" t="n">
         <v>0.654150745299012</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" ht="15" customHeight="1" s="5">
+      <c r="A41" s="6" t="n">
         <v>45393</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="4" t="n">
         <v>1.57016169242824</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="4" t="n">
         <v>0.819052872293823</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" ht="15" customHeight="1" s="5">
+      <c r="A42" s="6" t="n">
         <v>45394</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="4" t="n">
         <v>0.917045571443267</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="4" t="n">
         <v>0.910271601251335</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" ht="15" customHeight="1" s="5">
+      <c r="A43" s="6" t="n">
         <v>45397</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="4" t="n">
         <v>2.619982108912</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="4" t="n">
         <v>1.02768602980633</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" ht="15" customHeight="1" s="5">
+      <c r="A44" s="6" t="n">
         <v>45398</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="4" t="n">
         <v>2.61842730171653</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="4" t="n">
         <v>1.3996303517965</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" ht="15" customHeight="1" s="5">
+      <c r="A45" s="6" t="n">
         <v>45399</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="4" t="n">
         <v>2.58854365230652</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="4" t="n">
         <v>1.40239994973561</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" ht="15" customHeight="1" s="5">
+      <c r="A46" s="6" t="n">
         <v>45400</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="4" t="n">
         <v>1.62210300429185</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="4" t="n">
         <v>2.38441196146145</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+    <row r="47" ht="15" customHeight="1" s="5">
+      <c r="A47" s="6" t="n">
         <v>45404</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="4" t="n">
         <v>1.1929035883439</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="4" t="n">
         <v>0.986150688938276</v>
       </c>
     </row>
-    <row r="1048558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.014271653543307</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8608519419626607</v>
+      </c>
+    </row>
+    <row r="1048558" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048559" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048560" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048561" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048562" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048563" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048564" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048565" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048566" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048567" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048568" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048569" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048570" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="5"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="5"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="5"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="5"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -999,11 +999,22 @@
       <c r="A48" s="7" t="n">
         <v>45405</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="4" t="n">
         <v>1.014271653543307</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="4" t="n">
         <v>0.8608519419626607</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7151202167287504</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.22464086196235</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1010,11 +1010,22 @@
       <c r="A49" s="7" t="n">
         <v>45406</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="4" t="n">
         <v>0.7151202167287504</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="4" t="n">
         <v>1.22464086196235</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7131899135954858</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.834440548861379</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1021,11 +1021,22 @@
       <c r="A50" s="7" t="n">
         <v>45407</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="4" t="n">
         <v>0.7131899135954858</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="4" t="n">
         <v>0.834440548861379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.381564594047062</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6952314215794494</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1032,11 +1032,22 @@
       <c r="A51" s="7" t="n">
         <v>45408</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="4" t="n">
         <v>1.381564594047062</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="4" t="n">
         <v>0.6952314215794494</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.842188239003626</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.787740519411357</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1043,11 +1043,22 @@
       <c r="A52" s="7" t="n">
         <v>45411</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="4" t="n">
         <v>0.842188239003626</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="4" t="n">
         <v>0.787740519411357</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.435837971552257</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9316466651046306</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1054,11 +1054,22 @@
       <c r="A53" s="7" t="n">
         <v>45412</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="4" t="n">
         <v>3.435837971552257</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="4" t="n">
         <v>0.9316466651046306</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6312767484515803</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.708840199821635</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1065,11 +1065,22 @@
       <c r="A54" s="7" t="n">
         <v>45414</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="4" t="n">
         <v>0.6312767484515803</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="4" t="n">
         <v>0.708840199821635</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7469209524520415</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4951560870694087</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1076,11 +1076,22 @@
       <c r="A55" s="7" t="n">
         <v>45415</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="4" t="n">
         <v>0.7469209524520415</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="4" t="n">
         <v>0.4951560870694087</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9471719548811166</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.6602698969724715</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1087,11 +1087,22 @@
       <c r="A56" s="7" t="n">
         <v>45418</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="4" t="n">
         <v>0.9471719548811166</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="4" t="n">
         <v>0.6602698969724715</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.203086921202275</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3584530696785662</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2286,11 +2286,22 @@
       <c r="A165" s="7" t="n">
         <v>45573</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="4" t="n">
         <v>1.028754692226393</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="4" t="n">
         <v>0.5570791303396277</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.006839564248576</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.8698551533619633</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2297,11 +2297,22 @@
       <c r="A166" s="7" t="n">
         <v>45574</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="4" t="n">
         <v>1.006839564248576</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" s="4" t="n">
         <v>0.8698551533619633</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="7" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9380428488708743</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.9829774681152714</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2308,11 +2308,22 @@
       <c r="A167" s="7" t="n">
         <v>45575</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="4" t="n">
         <v>0.9380428488708743</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" s="4" t="n">
         <v>0.9829774681152714</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="7" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.4548636379388017</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.8623969126931086</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2319,11 +2319,22 @@
       <c r="A168" s="7" t="n">
         <v>45576</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="4" t="n">
         <v>0.4548636379388017</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" s="4" t="n">
         <v>0.8623969126931086</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="7" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.8646689221846302</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.060813420912757</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2330,11 +2330,22 @@
       <c r="A169" s="7" t="n">
         <v>45579</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="4" t="n">
         <v>0.8646689221846302</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" s="4" t="n">
         <v>1.060813420912757</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="7" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9692624710225809</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.121912571809704</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2341,11 +2341,22 @@
       <c r="A170" s="7" t="n">
         <v>45580</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="4" t="n">
         <v>0.9692624710225809</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" s="4" t="n">
         <v>1.121912571809704</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="7" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.769460458240946</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.914771038412292</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2352,11 +2352,22 @@
       <c r="A171" s="7" t="n">
         <v>45581</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="4" t="n">
         <v>0.769460458240946</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="4" t="n">
         <v>0.914771038412292</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7662438442023578</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.7761255594506347</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2363,11 +2363,22 @@
       <c r="A172" s="7" t="n">
         <v>45582</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="4" t="n">
         <v>0.7662438442023578</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" s="4" t="n">
         <v>0.7761255594506347</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="7" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.7612298298220528</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2374,10 +2374,21 @@
       <c r="A173" s="7" t="n">
         <v>45583</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="7" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C174" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2385,10 +2385,21 @@
       <c r="A174" s="7" t="n">
         <v>45586</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C175" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2396,10 +2396,21 @@
       <c r="A175" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="7" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C176" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2407,10 +2407,21 @@
       <c r="A176" s="7" t="n">
         <v>45588</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C177" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2418,10 +2418,21 @@
       <c r="A177" s="7" t="n">
         <v>45589</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="7" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C178" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2429,10 +2429,21 @@
       <c r="A178" s="7" t="n">
         <v>45590</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C179" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2440,10 +2440,21 @@
       <c r="A179" s="7" t="n">
         <v>45593</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="7" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C180" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2451,10 +2451,21 @@
       <c r="A180" s="7" t="n">
         <v>45594</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="7" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C181" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2462,10 +2462,21 @@
       <c r="A181" s="7" t="n">
         <v>45595</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="7" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C182" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2473,10 +2473,21 @@
       <c r="A182" s="7" t="n">
         <v>45596</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" s="4" t="n">
+        <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="7" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.508571723639368</v>
+      </c>
+      <c r="C183" t="n">
         <v>0.7612298298220528</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2484,11 +2484,22 @@
       <c r="A183" s="7" t="n">
         <v>45597</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="4" t="n">
         <v>0.508571723639368</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" s="4" t="n">
         <v>0.7612298298220528</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="7" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7382153793073705</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.5808370852809606</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2495,11 +2495,22 @@
       <c r="A184" s="7" t="n">
         <v>45600</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" s="4" t="n">
         <v>0.7382153793073705</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" s="4" t="n">
         <v>0.5808370852809606</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="7" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.6475372319825371</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.6225467501059212</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2506,11 +2506,22 @@
       <c r="A185" s="7" t="n">
         <v>45601</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="4" t="n">
         <v>0.6475372319825371</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" s="4" t="n">
         <v>0.6225467501059212</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="7" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.8332693180627815</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.5415103083422795</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2517,11 +2517,22 @@
       <c r="A186" s="7" t="n">
         <v>45602</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="4" t="n">
         <v>0.8332693180627815</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" s="4" t="n">
         <v>0.5415103083422795</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="7" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.6670786572403223</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.3939712760871087</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2528,11 +2528,22 @@
       <c r="A187" s="7" t="n">
         <v>45603</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="4" t="n">
         <v>0.6670786572403223</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" s="4" t="n">
         <v>0.3939712760871087</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="7" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9484803440969037</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.04735620328035</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2539,11 +2539,22 @@
       <c r="A188" s="7" t="n">
         <v>45604</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="4" t="n">
         <v>0.9484803440969037</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" s="4" t="n">
         <v>1.04735620328035</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="7" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.342254838477588</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.523104630931081</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2550,11 +2550,22 @@
       <c r="A189" s="7" t="n">
         <v>45607</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" s="4" t="n">
         <v>1.342254838477588</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" s="4" t="n">
         <v>1.523104630931081</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="7" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.991545862399834</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.9719590748555765</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2561,11 +2561,22 @@
       <c r="A190" s="7" t="n">
         <v>45608</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" s="4" t="n">
         <v>0.991545862399834</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" s="4" t="n">
         <v>0.9719590748555765</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="7" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.554337175120153</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.485369879834221</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2572,11 +2572,33 @@
       <c r="A191" s="7" t="n">
         <v>45609</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" s="4" t="n">
         <v>1.554337175120153</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191" s="4" t="n">
         <v>3.485369879834221</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="7" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B192" s="4" t="n">
+        <v>0.6512585812356979</v>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>3.10231373585379</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="7" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.4112130713689843</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.7926166334993746</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2594,11 +2594,22 @@
       <c r="A193" s="7" t="n">
         <v>45610</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" s="4" t="n">
         <v>0.4112130713689843</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193" s="4" t="n">
         <v>0.7926166334993746</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="7" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.860463302394509</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.7196502533822123</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2605,11 +2605,22 @@
       <c r="A194" s="7" t="n">
         <v>45614</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" s="4" t="n">
         <v>0.860463302394509</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" s="4" t="n">
         <v>0.7196502533822123</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="7" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.6122635135135135</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.6650834403944372</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2616,11 +2616,22 @@
       <c r="A195" s="7" t="n">
         <v>45615</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" s="4" t="n">
         <v>0.6122635135135135</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195" s="4" t="n">
         <v>0.6650834403944372</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="7" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.533581769896342</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.6759248218752857</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>
